--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BCD/15/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BCD/15/seed1/result_data_RandomForest.xlsx
@@ -488,7 +488,7 @@
         <v>-9.76</v>
       </c>
       <c r="D3" t="n">
-        <v>-7.529999999999988</v>
+        <v>-7.622599999999997</v>
       </c>
       <c r="E3" t="n">
         <v>13.95</v>
@@ -499,13 +499,13 @@
         <v>-22.38</v>
       </c>
       <c r="B4" t="n">
-        <v>4.680500000000004</v>
+        <v>4.759800000000005</v>
       </c>
       <c r="C4" t="n">
-        <v>-14.15350000000001</v>
+        <v>-14.07400000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>-7.677799999999995</v>
+        <v>-8.007400000000001</v>
       </c>
       <c r="E4" t="n">
         <v>10.77</v>
@@ -519,7 +519,7 @@
         <v>4.35</v>
       </c>
       <c r="C5" t="n">
-        <v>-14.71540000000001</v>
+        <v>-14.77670000000001</v>
       </c>
       <c r="D5" t="n">
         <v>-6.27</v>
@@ -533,7 +533,7 @@
         <v>-20.35</v>
       </c>
       <c r="B6" t="n">
-        <v>9.100900000000003</v>
+        <v>9.316799999999995</v>
       </c>
       <c r="C6" t="n">
         <v>-12.89</v>
@@ -550,7 +550,7 @@
         <v>-21.21</v>
       </c>
       <c r="B7" t="n">
-        <v>6.162299999999997</v>
+        <v>6.0039</v>
       </c>
       <c r="C7" t="n">
         <v>-10.59</v>
@@ -570,7 +570,7 @@
         <v>7.52</v>
       </c>
       <c r="C8" t="n">
-        <v>-11.9066</v>
+        <v>-12.0485</v>
       </c>
       <c r="D8" t="n">
         <v>-7.09</v>
@@ -590,7 +590,7 @@
         <v>-13.02</v>
       </c>
       <c r="D9" t="n">
-        <v>-6.463100000000002</v>
+        <v>-7.865699999999999</v>
       </c>
       <c r="E9" t="n">
         <v>12.31</v>
@@ -624,7 +624,7 @@
         <v>-13.87</v>
       </c>
       <c r="D11" t="n">
-        <v>-8.661299999999995</v>
+        <v>-8.375400000000001</v>
       </c>
       <c r="E11" t="n">
         <v>13.91</v>
@@ -675,7 +675,7 @@
         <v>-11.89</v>
       </c>
       <c r="D14" t="n">
-        <v>-7.777099999999998</v>
+        <v>-6.550699999999997</v>
       </c>
       <c r="E14" t="n">
         <v>12.97</v>
@@ -703,10 +703,10 @@
         <v>-20.57</v>
       </c>
       <c r="B16" t="n">
-        <v>9.545000000000002</v>
+        <v>9.105400000000005</v>
       </c>
       <c r="C16" t="n">
-        <v>-12.39380000000001</v>
+        <v>-12.3814</v>
       </c>
       <c r="D16" t="n">
         <v>-4.8</v>
@@ -743,7 +743,7 @@
         <v>-15.19</v>
       </c>
       <c r="D18" t="n">
-        <v>-8.150899999999996</v>
+        <v>-8.528199999999995</v>
       </c>
       <c r="E18" t="n">
         <v>12.54</v>
@@ -771,7 +771,7 @@
         <v>-22.69</v>
       </c>
       <c r="B20" t="n">
-        <v>5.339099999999999</v>
+        <v>5.499099999999998</v>
       </c>
       <c r="C20" t="n">
         <v>-14.65</v>
@@ -808,7 +808,7 @@
         <v>4.26</v>
       </c>
       <c r="C22" t="n">
-        <v>-11.09989999999999</v>
+        <v>-10.97349999999999</v>
       </c>
       <c r="D22" t="n">
         <v>-5.14</v>
@@ -862,7 +862,7 @@
         <v>-14.32</v>
       </c>
       <c r="D25" t="n">
-        <v>-8.212499999999993</v>
+        <v>-8.462899999999992</v>
       </c>
       <c r="E25" t="n">
         <v>15.03</v>
